--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kleas\OneDrive\Έγγραφα\Ceid\10 ΕΠΙΛΟΓΗΣ\ΠΟΛΥΔΙΑΣΤΑΤΕΣ\Multidimensional-data-structures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teokri/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE7E0A8-1B3B-4476-BCD8-43401AF7ACC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39ED0E7E-9771-5848-AF60-8F6DB06CCC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{39A2506E-B921-4E8C-997A-6BD3A3837790}"/>
+    <workbookView xWindow="1460" yWindow="1300" windowWidth="42100" windowHeight="24120" xr2:uid="{39A2506E-B921-4E8C-997A-6BD3A3837790}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="43">
   <si>
     <t>10 movies</t>
   </si>
@@ -146,12 +146,36 @@
   </si>
   <si>
     <t xml:space="preserve">80% knn </t>
+  </si>
+  <si>
+    <t>0.000199</t>
+  </si>
+  <si>
+    <t>0.000231</t>
+  </si>
+  <si>
+    <t>20% destroy</t>
+  </si>
+  <si>
+    <t>40% destroy</t>
+  </si>
+  <si>
+    <t>60% destroy</t>
+  </si>
+  <si>
+    <t>80% destroy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -239,15 +263,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -261,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -275,9 +290,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,18 +616,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F288A809-AB41-4B6B-860C-893FD203B5FE}">
-  <dimension ref="A1:Y84"/>
+  <dimension ref="A1:Y128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="AB39" sqref="AB39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -620,7 +650,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>8</v>
       </c>
@@ -637,7 +667,7 @@
         <v>3.7415999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>32</v>
       </c>
@@ -654,7 +684,7 @@
         <v>3.7141E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1024</v>
       </c>
@@ -671,7 +701,7 @@
         <v>0.14952599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>32768</v>
       </c>
@@ -688,7 +718,7 @@
         <v>49.885337999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -705,7 +735,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -722,7 +752,7 @@
         <v>4.6958E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>32</v>
       </c>
@@ -739,7 +769,7 @@
         <v>4.1085999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1024</v>
       </c>
@@ -756,7 +786,7 @@
         <v>0.29571500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>32768</v>
       </c>
@@ -773,7 +803,7 @@
         <v>180.27747099999999</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -790,7 +820,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -807,7 +837,7 @@
         <v>2.9364000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>32</v>
       </c>
@@ -824,7 +854,7 @@
         <v>3.7325999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1024</v>
       </c>
@@ -840,8 +870,9 @@
       <c r="E17">
         <v>0.46718999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>32768</v>
       </c>
@@ -858,7 +889,7 @@
         <v>418.45771300000001</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -875,7 +906,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8</v>
       </c>
@@ -892,7 +923,7 @@
         <v>3.4532E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>32</v>
       </c>
@@ -909,7 +940,7 @@
         <v>3.9809999999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1024</v>
       </c>
@@ -926,7 +957,7 @@
         <v>0.58033500000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>32768</v>
       </c>
@@ -943,7 +974,7 @@
         <v>518.31438600000001</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
@@ -1005,7 +1036,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>8</v>
       </c>
@@ -1067,7 +1098,7 @@
         <v>1.4899999999999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>32</v>
       </c>
@@ -1129,7 +1160,7 @@
         <v>8.7999999999999998E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>1024</v>
       </c>
@@ -1191,34 +1222,76 @@
         <v>2.0599999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>32768</v>
       </c>
-      <c r="B34" s="6">
-        <v>7.8692869999999999</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7"/>
+      <c r="B34" s="10">
+        <v>5.213686</v>
+      </c>
+      <c r="C34" s="10">
+        <v>5.3364370000000001</v>
+      </c>
+      <c r="D34" s="10">
+        <v>5.4237549999999999</v>
+      </c>
+      <c r="E34" s="12">
+        <v>5.2492359999999998</v>
+      </c>
       <c r="F34">
         <v>32768</v>
       </c>
+      <c r="G34" s="14">
+        <v>5.4230169999999998</v>
+      </c>
+      <c r="H34" s="13">
+        <v>5.3415980000000003</v>
+      </c>
+      <c r="I34" s="13">
+        <v>5.4099589999999997</v>
+      </c>
+      <c r="J34" s="13">
+        <v>5.441262</v>
+      </c>
       <c r="M34">
         <v>32768</v>
       </c>
+      <c r="N34">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O34">
+        <v>1.5699999999999999E-4</v>
+      </c>
+      <c r="P34">
+        <v>1.7799999999999999E-4</v>
+      </c>
+      <c r="Q34">
+        <v>1.3899999999999999E-4</v>
+      </c>
       <c r="T34">
         <v>32768</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U34">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="V34">
+        <v>1.4200000000000001E-4</v>
+      </c>
+      <c r="W34">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="X34">
+        <v>1.65E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>6</v>
       </c>
@@ -1280,11 +1353,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>8</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="9">
         <v>6.3699999999999998E-4</v>
       </c>
       <c r="C37" s="6">
@@ -1342,7 +1415,7 @@
         <v>1.06E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>32</v>
       </c>
@@ -1404,7 +1477,7 @@
         <v>7.6000000000000004E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>1024</v>
       </c>
@@ -1466,39 +1539,83 @@
         <v>9.1000000000000003E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>32768</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="7"/>
+      <c r="B40" s="10">
+        <v>10.147652000000001</v>
+      </c>
+      <c r="C40" s="10">
+        <v>10.380198</v>
+      </c>
+      <c r="D40" s="10">
+        <v>10.453735999999999</v>
+      </c>
+      <c r="E40" s="15">
+        <v>9.9096119999999992</v>
+      </c>
       <c r="F40">
         <v>32768</v>
       </c>
+      <c r="G40" s="13">
+        <v>10.043151999999999</v>
+      </c>
+      <c r="H40" s="13">
+        <v>10.677600999999999</v>
+      </c>
+      <c r="I40" s="13">
+        <v>10.13053</v>
+      </c>
+      <c r="J40" s="13">
+        <v>10.344797</v>
+      </c>
       <c r="M40">
         <v>32768</v>
       </c>
+      <c r="N40">
+        <v>1.4100000000000001E-4</v>
+      </c>
+      <c r="O40">
+        <v>1.66E-4</v>
+      </c>
+      <c r="P40">
+        <v>2.23E-4</v>
+      </c>
+      <c r="Q40">
+        <v>1.7100000000000001E-4</v>
+      </c>
       <c r="T40">
         <v>32768</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <v>1.5699999999999999E-4</v>
+      </c>
+      <c r="V40">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="W40">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="X40">
+        <v>2.8499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>7</v>
       </c>
@@ -1560,7 +1677,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>8</v>
       </c>
@@ -1622,7 +1739,7 @@
         <v>1.0399999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>32</v>
       </c>
@@ -1684,7 +1801,7 @@
         <v>1.35E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>1024</v>
       </c>
@@ -1746,21 +1863,36 @@
         <v>1.6799999999999999E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>32768</v>
       </c>
-      <c r="B47" s="6">
-        <v>20.645579000000001</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
+      <c r="B47" s="16">
+        <v>14.598158</v>
+      </c>
+      <c r="C47" s="16">
+        <v>14.770602</v>
+      </c>
+      <c r="D47" s="16">
+        <v>14.547224</v>
+      </c>
+      <c r="E47" s="17">
+        <v>15.38275</v>
+      </c>
       <c r="F47">
         <v>32768</v>
       </c>
-      <c r="G47">
-        <v>21.047235000000001</v>
+      <c r="G47" s="14">
+        <v>13.047235000000001</v>
+      </c>
+      <c r="H47" s="14">
+        <v>15.218783999999999</v>
+      </c>
+      <c r="I47" s="14">
+        <v>14.922909000000001</v>
+      </c>
+      <c r="J47" s="14">
+        <v>15.195484</v>
       </c>
       <c r="M47">
         <v>32768</v>
@@ -1768,28 +1900,45 @@
       <c r="N47">
         <v>3.1399999999999999E-4</v>
       </c>
+      <c r="O47">
+        <v>1.3899999999999999E-4</v>
+      </c>
+      <c r="P47">
+        <v>1.9699999999999999E-4</v>
+      </c>
+      <c r="Q47">
+        <v>2.13E-4</v>
+      </c>
       <c r="T47">
         <v>32768</v>
       </c>
       <c r="U47">
         <v>2.5900000000000001E-4</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V47">
+        <v>1.65E-4</v>
+      </c>
+      <c r="W47">
+        <v>1.8699999999999999E-4</v>
+      </c>
+      <c r="X47">
+        <v>2.22E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>8</v>
       </c>
@@ -1851,7 +2000,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>8</v>
       </c>
@@ -1913,7 +2062,7 @@
         <v>1.16E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>32</v>
       </c>
@@ -1975,7 +2124,7 @@
         <v>6.2000000000000003E-5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>1024</v>
       </c>
@@ -2037,25 +2186,69 @@
         <v>1.6100000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>32768</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
+      <c r="B54" s="18">
+        <v>17.493722000000002</v>
+      </c>
+      <c r="C54" s="18">
+        <v>17.119092999999999</v>
+      </c>
+      <c r="D54" s="18">
+        <v>18.648375000000001</v>
+      </c>
+      <c r="E54" s="18">
+        <v>18.211552000000001</v>
+      </c>
       <c r="F54">
         <v>32768</v>
       </c>
+      <c r="G54" s="13">
+        <v>18.098234000000001</v>
+      </c>
+      <c r="H54" s="13">
+        <v>17.999345000000002</v>
+      </c>
+      <c r="I54" s="13">
+        <v>18.7347787</v>
+      </c>
+      <c r="J54" s="13">
+        <v>18.004411999999999</v>
+      </c>
       <c r="M54">
         <v>32768</v>
       </c>
+      <c r="N54">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="O54">
+        <v>1.85E-4</v>
+      </c>
+      <c r="P54">
+        <v>2.1100000000000001E-4</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>37</v>
+      </c>
       <c r="T54">
         <v>32768</v>
       </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U54">
+        <v>2.34E-4</v>
+      </c>
+      <c r="V54">
+        <v>1.8699999999999999E-4</v>
+      </c>
+      <c r="W54">
+        <v>2.34E-4</v>
+      </c>
+      <c r="X54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>21</v>
       </c>
@@ -2117,7 +2310,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>8</v>
       </c>
@@ -2179,7 +2372,7 @@
         <v>1.511396</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>32</v>
       </c>
@@ -2241,7 +2434,7 @@
         <v>7.8695000000000001E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1024</v>
       </c>
@@ -2303,21 +2496,69 @@
         <v>4.0200000000000001E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>32768</v>
       </c>
+      <c r="B64">
+        <v>1.26E-4</v>
+      </c>
+      <c r="C64">
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="D64">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="E64">
+        <v>1.73E-4</v>
+      </c>
       <c r="H64">
         <v>32768</v>
       </c>
+      <c r="I64">
+        <v>2.0900000000000001E-4</v>
+      </c>
+      <c r="J64">
+        <v>2.4800000000000001E-4</v>
+      </c>
+      <c r="K64">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="L64">
+        <v>2.23E-4</v>
+      </c>
       <c r="O64">
         <v>32768</v>
       </c>
+      <c r="P64">
+        <v>3.3100000000000002E-4</v>
+      </c>
+      <c r="Q64">
+        <v>1.1410000000000001E-3</v>
+      </c>
+      <c r="R64">
+        <v>1.8799999999999999E-4</v>
+      </c>
+      <c r="S64">
+        <v>0.74026599999999998</v>
+      </c>
       <c r="U64">
         <v>32768</v>
       </c>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V64">
+        <v>6.4599999999999998E-4</v>
+      </c>
+      <c r="W64">
+        <v>2.12E-4</v>
+      </c>
+      <c r="X64">
+        <v>4.7699999999999999E-4</v>
+      </c>
+      <c r="Y64">
+        <v>4.9799999999999996E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -2379,7 +2620,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>8</v>
       </c>
@@ -2441,7 +2682,7 @@
         <v>4.6292E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>32</v>
       </c>
@@ -2503,7 +2744,7 @@
         <v>0.30049199999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1024</v>
       </c>
@@ -2565,21 +2806,69 @@
         <v>1.165E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>32768</v>
       </c>
+      <c r="B70">
+        <v>9.7E-5</v>
+      </c>
+      <c r="C70">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="D70">
+        <v>1.4100000000000001E-4</v>
+      </c>
+      <c r="E70">
+        <v>1.22E-4</v>
+      </c>
       <c r="H70">
         <v>32768</v>
       </c>
+      <c r="I70">
+        <v>1.74E-4</v>
+      </c>
+      <c r="J70">
+        <v>1.8100000000000001E-4</v>
+      </c>
+      <c r="K70">
+        <v>1.8799999999999999E-4</v>
+      </c>
+      <c r="L70">
+        <v>2.04E-4</v>
+      </c>
       <c r="O70">
         <v>32768</v>
       </c>
+      <c r="P70" s="13">
+        <v>2.2599999999999999E-3</v>
+      </c>
+      <c r="Q70">
+        <v>2.4109999999999999E-3</v>
+      </c>
+      <c r="R70">
+        <v>2.2060000000000001E-3</v>
+      </c>
+      <c r="S70">
+        <v>3.0170000000000002E-3</v>
+      </c>
       <c r="U70">
         <v>32768</v>
       </c>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V70">
+        <v>3.3100000000000002E-4</v>
+      </c>
+      <c r="W70">
+        <v>3.39E-4</v>
+      </c>
+      <c r="X70">
+        <v>6.3400000000000001E-4</v>
+      </c>
+      <c r="Y70">
+        <v>6.4800000000000003E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -2641,7 +2930,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>8</v>
       </c>
@@ -2703,7 +2992,7 @@
         <v>0.52681699999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>32</v>
       </c>
@@ -2765,7 +3054,7 @@
         <v>0.110552</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1024</v>
       </c>
@@ -2827,21 +3116,69 @@
         <v>1.8910000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>32768</v>
       </c>
+      <c r="B77">
+        <v>1.27E-4</v>
+      </c>
+      <c r="C77">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="D77">
+        <v>2.4899999999999998E-4</v>
+      </c>
+      <c r="E77">
+        <v>4.4900000000000001E-3</v>
+      </c>
       <c r="H77">
         <v>32768</v>
       </c>
+      <c r="I77">
+        <v>1.93E-4</v>
+      </c>
+      <c r="J77">
+        <v>1.8799999999999999E-4</v>
+      </c>
+      <c r="K77">
+        <v>1.9799999999999999E-4</v>
+      </c>
+      <c r="L77">
+        <v>2.7999999999999998E-4</v>
+      </c>
       <c r="O77">
         <v>32768</v>
       </c>
+      <c r="P77">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="Q77">
+        <v>0.2505</v>
+      </c>
+      <c r="R77">
+        <v>0.28239999999999998</v>
+      </c>
+      <c r="S77">
+        <v>0.58240000000000003</v>
+      </c>
       <c r="U77">
         <v>32768</v>
       </c>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="V77">
+        <v>7.0600000000000003E-4</v>
+      </c>
+      <c r="W77">
+        <v>6.2100000000000002E-4</v>
+      </c>
+      <c r="X77">
+        <v>8.2299999999999995E-4</v>
+      </c>
+      <c r="Y77">
+        <v>9.9599999999999992E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -2903,7 +3240,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>8</v>
       </c>
@@ -2965,7 +3302,7 @@
         <v>0.18667300000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>32</v>
       </c>
@@ -3027,7 +3364,7 @@
         <v>9.6084000000000003E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1024</v>
       </c>
@@ -3065,13 +3402,13 @@
         <v>0.34624899999999997</v>
       </c>
       <c r="Q83">
-        <v>2.129286</v>
+        <v>0.52928600000000003</v>
       </c>
       <c r="R83">
-        <v>7.7559999999999999E-3</v>
+        <v>0.35755999999999999</v>
       </c>
       <c r="S83">
-        <v>3.6400000000000001E-4</v>
+        <v>3.6400000000000002E-2</v>
       </c>
       <c r="U83">
         <v>1024</v>
@@ -3089,18 +3426,440 @@
         <v>1.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>32768</v>
       </c>
+      <c r="B84">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="C84">
+        <v>3.6499999999999998E-4</v>
+      </c>
+      <c r="D84">
+        <v>4.2099999999999999E-4</v>
+      </c>
+      <c r="E84">
+        <v>2.99E-4</v>
+      </c>
       <c r="H84">
         <v>32768</v>
       </c>
+      <c r="I84">
+        <v>3.77E-4</v>
+      </c>
+      <c r="J84">
+        <v>3.3100000000000002E-4</v>
+      </c>
+      <c r="K84">
+        <v>4.2400000000000001E-4</v>
+      </c>
+      <c r="L84">
+        <v>4.9799999999999996E-4</v>
+      </c>
       <c r="O84">
         <v>32768</v>
       </c>
+      <c r="P84">
+        <v>0.28946499999999997</v>
+      </c>
+      <c r="Q84">
+        <v>0.27823799999999999</v>
+      </c>
+      <c r="R84">
+        <v>0.53392099999999998</v>
+      </c>
+      <c r="S84">
+        <v>0.308423</v>
+      </c>
       <c r="U84">
         <v>32768</v>
+      </c>
+      <c r="V84">
+        <v>7.5648E-3</v>
+      </c>
+      <c r="W84">
+        <v>2.3869999999999998E-3</v>
+      </c>
+      <c r="X84">
+        <v>2.3059999999999999E-3</v>
+      </c>
+      <c r="Y84">
+        <v>6.711E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I104" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K104" s="3">
+        <v>100</v>
+      </c>
+      <c r="L104" s="3">
+        <v>500</v>
+      </c>
+      <c r="M104" s="4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="105" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I105" s="5">
+        <v>8</v>
+      </c>
+      <c r="J105" s="19">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="K105" s="19">
+        <v>3.4E-5</v>
+      </c>
+      <c r="L105" s="19">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="M105" s="20">
+        <v>4.35E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I106" s="5">
+        <v>32</v>
+      </c>
+      <c r="J106" s="19">
+        <v>7.64E-5</v>
+      </c>
+      <c r="K106" s="19">
+        <v>4.5599999999999997E-5</v>
+      </c>
+      <c r="L106" s="19">
+        <v>4.3600000000000003E-5</v>
+      </c>
+      <c r="M106" s="20">
+        <v>7.45E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I107" s="5">
+        <v>1024</v>
+      </c>
+      <c r="J107" s="19">
+        <v>1.2E-5</v>
+      </c>
+      <c r="K107" s="19">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="L107" s="19">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="M107" s="20">
+        <v>3.2899999999999997E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I108" s="5">
+        <v>32768</v>
+      </c>
+      <c r="J108" s="20">
+        <v>1.2279999999999999E-2</v>
+      </c>
+      <c r="K108" s="20">
+        <v>1.9547999999999999E-2</v>
+      </c>
+      <c r="L108" s="20">
+        <v>1.43234E-2</v>
+      </c>
+      <c r="M108" s="20">
+        <v>2.4889999999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I109" s="5"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+      <c r="L109" s="6"/>
+      <c r="M109" s="7"/>
+    </row>
+    <row r="110" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I110" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K110" s="6">
+        <v>100</v>
+      </c>
+      <c r="L110" s="6">
+        <v>500</v>
+      </c>
+      <c r="M110" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="111" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I111" s="5">
+        <v>8</v>
+      </c>
+      <c r="J111" s="19">
+        <v>4.32E-5</v>
+      </c>
+      <c r="K111" s="19">
+        <v>2.234E-5</v>
+      </c>
+      <c r="L111" s="19">
+        <v>4.3220000000000003E-5</v>
+      </c>
+      <c r="M111" s="20">
+        <v>7.8299999999999995E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I112" s="5">
+        <v>32</v>
+      </c>
+      <c r="J112" s="19">
+        <v>8.5439999999999995E-5</v>
+      </c>
+      <c r="K112" s="19">
+        <v>8.6500000000000002E-5</v>
+      </c>
+      <c r="L112" s="19">
+        <v>4.3619999999999999E-5</v>
+      </c>
+      <c r="M112" s="20">
+        <v>8.2220000000000001E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I113" s="5">
+        <v>1024</v>
+      </c>
+      <c r="J113" s="19">
+        <v>9.1850000000000005E-4</v>
+      </c>
+      <c r="K113" s="19">
+        <v>7.9330000000000004E-4</v>
+      </c>
+      <c r="L113" s="19">
+        <v>7.4021999999999998E-4</v>
+      </c>
+      <c r="M113" s="20">
+        <v>9.5490000000000002E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I114" s="5">
+        <v>32768</v>
+      </c>
+      <c r="J114" s="20">
+        <v>1.2766E-2</v>
+      </c>
+      <c r="K114" s="20">
+        <v>1.6558E-2</v>
+      </c>
+      <c r="L114" s="20">
+        <v>1.4557E-2</v>
+      </c>
+      <c r="M114" s="20">
+        <v>2.9546599999999999E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I115" s="5"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="7"/>
+    </row>
+    <row r="116" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I116" s="5"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="7"/>
+    </row>
+    <row r="117" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I117" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J117" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K117" s="6">
+        <v>100</v>
+      </c>
+      <c r="L117" s="6">
+        <v>500</v>
+      </c>
+      <c r="M117" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I118" s="5">
+        <v>8</v>
+      </c>
+      <c r="J118" s="17">
+        <v>1.3847E-2</v>
+      </c>
+      <c r="K118" s="17">
+        <v>3.8594400000000001E-2</v>
+      </c>
+      <c r="L118" s="17">
+        <v>3.8857000000000003E-2</v>
+      </c>
+      <c r="M118" s="17">
+        <v>4.1175999999999997E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I119" s="5">
+        <v>32</v>
+      </c>
+      <c r="J119" s="17">
+        <v>2.0098000000000001E-2</v>
+      </c>
+      <c r="K119" s="17">
+        <v>1.5677E-2</v>
+      </c>
+      <c r="L119" s="17">
+        <v>3.8538000000000003E-2</v>
+      </c>
+      <c r="M119" s="17">
+        <v>4.1984E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I120" s="5">
+        <v>1024</v>
+      </c>
+      <c r="J120" s="17">
+        <v>2.4698000000000001E-2</v>
+      </c>
+      <c r="K120" s="17">
+        <v>3.1227999999999999E-2</v>
+      </c>
+      <c r="L120" s="17">
+        <v>2.4764999999999999E-2</v>
+      </c>
+      <c r="M120" s="17">
+        <v>6.4354999999999996E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I121" s="5">
+        <v>32768</v>
+      </c>
+      <c r="J121" s="17">
+        <v>2.8882999999999999E-2</v>
+      </c>
+      <c r="K121" s="17">
+        <v>4.6765000000000001E-2</v>
+      </c>
+      <c r="L121" s="17">
+        <v>3.1186999999999999E-2</v>
+      </c>
+      <c r="M121" s="17">
+        <v>5.2183E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I122" s="5"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+      <c r="L122" s="6"/>
+    </row>
+    <row r="123" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I123" s="5"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+      <c r="L123" s="6"/>
+      <c r="M123" s="7"/>
+    </row>
+    <row r="124" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I124" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K124" s="6">
+        <v>100</v>
+      </c>
+      <c r="L124" s="6">
+        <v>500</v>
+      </c>
+      <c r="M124" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="125" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I125" s="5">
+        <v>8</v>
+      </c>
+      <c r="J125" s="17">
+        <v>2.3446999999999999E-2</v>
+      </c>
+      <c r="K125" s="17">
+        <v>3.6574000000000002E-2</v>
+      </c>
+      <c r="L125" s="17">
+        <v>5.3765E-2</v>
+      </c>
+      <c r="M125" s="18">
+        <v>6.0296000000000002E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I126" s="5">
+        <v>32</v>
+      </c>
+      <c r="J126" s="17">
+        <v>3.8755999999999999E-2</v>
+      </c>
+      <c r="K126" s="17">
+        <v>3.7454000000000001E-2</v>
+      </c>
+      <c r="L126" s="17">
+        <v>3.2400999999999999E-2</v>
+      </c>
+      <c r="M126" s="18">
+        <v>6.5039E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I127" s="5">
+        <v>1024</v>
+      </c>
+      <c r="J127" s="17">
+        <v>3.9958E-2</v>
+      </c>
+      <c r="K127" s="17">
+        <v>4.3776000000000002E-2</v>
+      </c>
+      <c r="L127" s="17">
+        <v>3.8744000000000001E-2</v>
+      </c>
+      <c r="M127" s="18">
+        <v>7.6541999999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="9:13" x14ac:dyDescent="0.2">
+      <c r="I128" s="8">
+        <v>32768</v>
+      </c>
+      <c r="J128" s="17">
+        <v>3.4755000000000001E-2</v>
+      </c>
+      <c r="K128" s="17">
+        <v>5.78223E-2</v>
+      </c>
+      <c r="L128" s="17">
+        <v>6.4784999999999995E-2</v>
+      </c>
+      <c r="M128" s="18">
+        <v>8.6535000000000001E-2</v>
       </c>
     </row>
   </sheetData>
